--- a/000 AGENCIA INFORMACION DI/100 Agricultura.xlsx
+++ b/000 AGENCIA INFORMACION DI/100 Agricultura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1BFD3-7FC8-4309-AEFA-2138B402EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF50A1C-BE93-4285-844E-112279C86352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agricultura" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="521">
   <si>
     <t>id</t>
   </si>
@@ -1580,6 +1580,33 @@
   </si>
   <si>
     <t>Periodo 2012-2036</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Cítricos</t>
+  </si>
+  <si>
+    <t>Frutos de hueso (carozo)</t>
+  </si>
+  <si>
+    <t>Frutos de pepita</t>
+  </si>
+  <si>
+    <t>Frutos secos</t>
+  </si>
+  <si>
+    <t>Frutos oleaginosos</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Tropicales y subtropicales</t>
+  </si>
+  <si>
+    <t>Uva</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2029,705 +2056,21 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="136">
-    <dxf>
-      <font>
-        <b/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9F2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6A0C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCEEE8E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AE2B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD0ACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9F2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6A0C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCEEE8E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AE2B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD0ACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="133">
     <dxf>
       <font>
         <b/>
@@ -3729,115 +3072,338 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9F2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6A0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEEE8E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AE2B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0ACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="0"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FFC00000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FFC00000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FFC00000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FFC00000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF0070C0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF0070C0"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF0070C0"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF0070C0"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF0070C0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3847,17 +3413,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3986,6 +3541,30 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="9"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4591,6 +4170,117 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4747,6 +4437,329 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9F2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6A0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEEE8E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AE2B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0ACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4767,11 +4780,13 @@
       <sheetName val="Sitio Público"/>
       <sheetName val="Estructura"/>
       <sheetName val="TD"/>
+      <sheetName val="000 Sitio Público"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6762,391 +6777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4870BAEC-3674-494C-96AA-D9E473F73853}" name="TablaDinámica4" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:L6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <formats count="2">
-    <format dxfId="110">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9473AC8F-C5B9-4397-881E-C87F4D5D72DB}" name="TablaDinámica3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="G3:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item m="1" x="2"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2ADDEFDB-163D-4CC1-8861-7C6E3CE442CC}" name="TablaDinámica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2ADDEFDB-163D-4CC1-8861-7C6E3CE442CC}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7329,8 +6960,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69395618-C9A9-4B05-82B3-6BB840224A10}" name="TablaDinámica8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69395618-C9A9-4B05-82B3-6BB840224A10}" name="TablaDinámica8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="Q3:R21" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7935,7 +7566,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="111">
+    <format dxfId="65">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
   </formats>
@@ -7951,8 +7582,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A809155-381C-4432-9B5A-1D7F5E378C6D}" name="TablaDinámica7" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A809155-381C-4432-9B5A-1D7F5E378C6D}" name="TablaDinámica7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G20:G26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8152,8 +7783,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DA83917-5E13-474F-96F2-8E7D27320B6A}" name="TablaDinámica6" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DA83917-5E13-474F-96F2-8E7D27320B6A}" name="TablaDinámica6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B20:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8361,8 +7992,392 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4870BAEC-3674-494C-96AA-D9E473F73853}" name="TablaDinámica4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:L6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <formats count="2">
+    <format dxfId="67">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9473AC8F-C5B9-4397-881E-C87F4D5D72DB}" name="TablaDinámica3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="G3:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item m="1" x="2"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4303F3C8-DE76-42AA-BDDD-06E650266948}" name="TablaDinámica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4303F3C8-DE76-42AA-BDDD-06E650266948}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:G41" firstHeaderRow="1" firstDataRow="1" firstDataCol="7"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9162,54 +9177,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83AC5EF3-2C70-4D90-B5E1-D528231814D8}" name="Agricultura" displayName="Agricultura" ref="A1:AA65" totalsRowShown="0" headerRowDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83AC5EF3-2C70-4D90-B5E1-D528231814D8}" name="Agricultura" displayName="Agricultura" ref="A1:AA65" totalsRowShown="0" headerRowDxfId="95">
   <autoFilter ref="A1:AA65" xr:uid="{97B5C476-3F9F-4197-BB18-4AEB96A9D3D7}"/>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{3D431003-FED6-4551-A9A5-C20BDD800BF5}" name="id" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{69EBE614-7415-4758-84D1-70A8BB5AD412}" name="idcoleccion" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{00067312-1731-4475-9E54-D88AF9927A57}" name="coleccion" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{2D5FA4E0-31EC-4F24-BE99-607D3D813655}" name="sector" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{DAA5ABD7-005E-4726-9D0E-964ABFE6C124}" name="Filtro URL" dataDxfId="108"/>
-    <tableColumn id="6" xr3:uid="{3EE64D21-CEE3-4F56-9BDB-E86405583F0C}" name="tema" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{B18CD19C-51DC-46C2-871C-6BE101FACFEB}" name="contenido" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{23D5C1AF-BDE4-4009-AB41-531D544CB052}" name="escala" dataDxfId="130"/>
-    <tableColumn id="9" xr3:uid="{DA849DF4-1E4F-43E4-98F9-07CF968F8068}" name="territorio" dataDxfId="129"/>
-    <tableColumn id="10" xr3:uid="{4CCEC976-24A6-484D-A3BB-EBEF50210414}" name="Filtro Integrado" dataDxfId="128"/>
-    <tableColumn id="11" xr3:uid="{633CF37C-9475-458F-93BD-3E6C829259FE}" name="Muestra" dataDxfId="127"/>
-    <tableColumn id="12" xr3:uid="{C9AD2F62-6D59-441D-86A3-D657475A5048}" name="temporalidad" dataDxfId="126"/>
-    <tableColumn id="13" xr3:uid="{9C90CF92-D46C-45CC-A515-665BEFD59FD0}" name="unidad_medida" dataDxfId="125"/>
-    <tableColumn id="14" xr3:uid="{A535AC73-D5CA-471D-961D-840916F57BFB}" name="fuente" dataDxfId="124"/>
-    <tableColumn id="15" xr3:uid="{CE821007-F8A2-469B-90CB-A97B34EA0E0D}" name="titulo" dataDxfId="123">
+    <tableColumn id="1" xr3:uid="{3D431003-FED6-4551-A9A5-C20BDD800BF5}" name="id" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{69EBE614-7415-4758-84D1-70A8BB5AD412}" name="idcoleccion" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{00067312-1731-4475-9E54-D88AF9927A57}" name="coleccion" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{2D5FA4E0-31EC-4F24-BE99-607D3D813655}" name="sector" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{DAA5ABD7-005E-4726-9D0E-964ABFE6C124}" name="Filtro URL" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{3EE64D21-CEE3-4F56-9BDB-E86405583F0C}" name="tema" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{B18CD19C-51DC-46C2-871C-6BE101FACFEB}" name="contenido" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{23D5C1AF-BDE4-4009-AB41-531D544CB052}" name="escala" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{DA849DF4-1E4F-43E4-98F9-07CF968F8068}" name="territorio" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{4CCEC976-24A6-484D-A3BB-EBEF50210414}" name="Filtro Integrado" dataDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{633CF37C-9475-458F-93BD-3E6C829259FE}" name="Muestra" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{C9AD2F62-6D59-441D-86A3-D657475A5048}" name="temporalidad" dataDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{9C90CF92-D46C-45CC-A515-665BEFD59FD0}" name="unidad_medida" dataDxfId="82"/>
+    <tableColumn id="14" xr3:uid="{A535AC73-D5CA-471D-961D-840916F57BFB}" name="fuente" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{CE821007-F8A2-469B-90CB-A97B34EA0E0D}" name="titulo" dataDxfId="80">
       <calculatedColumnFormula>"Exportaciones de fruta, por "&amp;Agricultura[[#This Row],[Muestra]]&amp;", producidas en "&amp;I2&amp;", durante el "&amp;L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{ACF065FA-53DF-42A2-AB76-F382DF0507E9}" name="descripcion_larga" dataDxfId="122">
+    <tableColumn id="16" xr3:uid="{ACF065FA-53DF-42A2-AB76-F382DF0507E9}" name="descripcion_larga" dataDxfId="79">
       <calculatedColumnFormula>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B3241B34-1F28-488E-962D-702279B7FC29}" name="visualizacion" dataDxfId="121">
+    <tableColumn id="17" xr3:uid="{B3241B34-1F28-488E-962D-702279B7FC29}" name="visualizacion" dataDxfId="78">
       <calculatedColumnFormula>+Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{36E18FB8-B090-4513-8878-F34530369C6B}" name="tag" dataDxfId="120"/>
-    <tableColumn id="19" xr3:uid="{34EAE68C-0B4D-4751-9FD6-9A20417E489D}" name="url" dataDxfId="119" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="20" xr3:uid="{B53287BC-B50E-4BCC-BB6C-DE60B70DC3AF}" name="Suscripcion" dataDxfId="118"/>
-    <tableColumn id="21" xr3:uid="{6658E20A-9C4E-46D0-829C-CD31924B1376}" name="Color" dataDxfId="117">
+    <tableColumn id="18" xr3:uid="{36E18FB8-B090-4513-8878-F34530369C6B}" name="tag" dataDxfId="77"/>
+    <tableColumn id="19" xr3:uid="{34EAE68C-0B4D-4751-9FD6-9A20417E489D}" name="url" dataDxfId="76" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="20" xr3:uid="{B53287BC-B50E-4BCC-BB6C-DE60B70DC3AF}" name="Suscripcion" dataDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{6658E20A-9C4E-46D0-829C-CD31924B1376}" name="Color" dataDxfId="74">
       <calculatedColumnFormula>+U1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{21DBE239-F721-4DEC-9312-D9E30988F7A8}" name="id_grafico" dataDxfId="116">
+    <tableColumn id="22" xr3:uid="{21DBE239-F721-4DEC-9312-D9E30988F7A8}" name="id_grafico" dataDxfId="73">
       <calculatedColumnFormula>+Agricultura[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura[[#This Row],[id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{51BFA0BA-A1A2-4D6D-9A13-0B82C3B88C4E}" name="idterritorio" dataDxfId="0">
+    <tableColumn id="23" xr3:uid="{51BFA0BA-A1A2-4D6D-9A13-0B82C3B88C4E}" name="idterritorio" dataDxfId="72">
       <calculatedColumnFormula>+VLOOKUP(Agricultura[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{223E2DD3-A78B-40CF-935F-BB4012C57299}" name="id_tema" dataDxfId="115">
+    <tableColumn id="24" xr3:uid="{223E2DD3-A78B-40CF-935F-BB4012C57299}" name="id_tema" dataDxfId="71">
       <calculatedColumnFormula>+VLOOKUP(Agricultura[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{75573ACC-C413-46F3-8534-404C576ECE29}" name="id_contenido" dataDxfId="114">
+    <tableColumn id="25" xr3:uid="{75573ACC-C413-46F3-8534-404C576ECE29}" name="id_contenido" dataDxfId="70">
       <calculatedColumnFormula>+VLOOKUP(Agricultura[[#This Row],[contenido]],Estructura!$G$4:$I$18,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B4A1188A-2AFB-4C47-96CE-A097012C4C72}" name="idfiltro" dataDxfId="113">
+    <tableColumn id="26" xr3:uid="{B4A1188A-2AFB-4C47-96CE-A097012C4C72}" name="idfiltro" dataDxfId="69">
       <calculatedColumnFormula>+VLOOKUP(Agricultura[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{B70F5663-983D-46E9-A27F-F0856A7F11DA}" name="id_muestra" dataDxfId="112">
+    <tableColumn id="27" xr3:uid="{B70F5663-983D-46E9-A27F-F0856A7F11DA}" name="id_muestra" dataDxfId="68">
       <calculatedColumnFormula>+VLOOKUP(Agricultura[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9218,54 +9233,54 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{478595B4-C2E9-4B53-86CC-C62DD58B8B1C}" name="Agricultura3" displayName="Agricultura3" ref="A1:AA49" totalsRowShown="0" headerRowDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{478595B4-C2E9-4B53-86CC-C62DD58B8B1C}" name="Agricultura3" displayName="Agricultura3" ref="A1:AA49" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:AA49" xr:uid="{97B5C476-3F9F-4197-BB18-4AEB96A9D3D7}"/>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{718A781A-3D34-41DF-9170-2F40F763C579}" name="id" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{0DACD66C-7190-4C01-BB33-33FE38973BF9}" name="idcoleccion" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{326EC84F-668D-44C5-AE7C-6C6150B28B20}" name="coleccion" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{76B38048-87A4-424E-88DA-8C1CFF0745F3}" name="sector" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{7B7568A0-919E-4334-A6B6-8B402F87F95C}" name="Filtro URL" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{BEA27982-7167-4880-A2C9-897AB16A61BF}" name="tema" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{C1C405BD-DD6A-41A8-83EE-495B18680261}" name="contenido" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{2FA6D617-F4F6-4CC4-92AF-E4263EF12255}" name="escala" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{16BC56EB-284B-4F1F-9672-82E1DDF06B18}" name="territorio" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{DCDF207F-B196-46DF-A484-7023F7C793E6}" name="Filtro Integrado" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{C5B50394-8369-4C27-933E-C2F66C0FADE9}" name="Muestra" dataDxfId="94"/>
-    <tableColumn id="12" xr3:uid="{1B86BF59-5BA7-48BC-B6A7-D534314A167F}" name="temporalidad" dataDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{D514222D-0DA5-4935-9502-55C8000F95C4}" name="unidad_medida" dataDxfId="92"/>
-    <tableColumn id="14" xr3:uid="{11A81115-8F5F-4216-880A-3A6134B54319}" name="fuente" dataDxfId="91"/>
-    <tableColumn id="15" xr3:uid="{B063F3E9-41A9-4CFD-8A0C-D23035C46827}" name="titulo" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{718A781A-3D34-41DF-9170-2F40F763C579}" name="id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{0DACD66C-7190-4C01-BB33-33FE38973BF9}" name="idcoleccion" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{326EC84F-668D-44C5-AE7C-6C6150B28B20}" name="coleccion" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{76B38048-87A4-424E-88DA-8C1CFF0745F3}" name="sector" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{7B7568A0-919E-4334-A6B6-8B402F87F95C}" name="Filtro URL" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{BEA27982-7167-4880-A2C9-897AB16A61BF}" name="tema" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{C1C405BD-DD6A-41A8-83EE-495B18680261}" name="contenido" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{2FA6D617-F4F6-4CC4-92AF-E4263EF12255}" name="escala" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{16BC56EB-284B-4F1F-9672-82E1DDF06B18}" name="territorio" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{DCDF207F-B196-46DF-A484-7023F7C793E6}" name="Filtro Integrado" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{C5B50394-8369-4C27-933E-C2F66C0FADE9}" name="Muestra" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{1B86BF59-5BA7-48BC-B6A7-D534314A167F}" name="temporalidad" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{D514222D-0DA5-4935-9502-55C8000F95C4}" name="unidad_medida" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{11A81115-8F5F-4216-880A-3A6134B54319}" name="fuente" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{B063F3E9-41A9-4CFD-8A0C-D23035C46827}" name="titulo" dataDxfId="12">
       <calculatedColumnFormula>"Exportaciones de fruta, por "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I2&amp;", durante el "&amp;L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E18F223B-F15F-4C9E-9223-F251E5A8D94D}" name="descripcion_larga" dataDxfId="89">
+    <tableColumn id="16" xr3:uid="{E18F223B-F15F-4C9E-9223-F251E5A8D94D}" name="descripcion_larga" dataDxfId="11">
       <calculatedColumnFormula>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2BE0F07D-549A-4F34-8691-1EF2D3D1B638}" name="visualizacion" dataDxfId="88">
+    <tableColumn id="17" xr3:uid="{2BE0F07D-549A-4F34-8691-1EF2D3D1B638}" name="visualizacion" dataDxfId="10">
       <calculatedColumnFormula>+Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{7E05D636-A286-4EDD-A758-05FF6D600DAE}" name="tag" dataDxfId="87"/>
-    <tableColumn id="19" xr3:uid="{B2884F6B-F2BD-474E-A9AA-2DC958E5D3CB}" name="url" dataDxfId="86" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="20" xr3:uid="{BFB22592-A523-44A5-8D53-C7E4F0B7AF14}" name="Suscripcion" dataDxfId="85"/>
-    <tableColumn id="21" xr3:uid="{5F7BCF90-C885-4C8B-A630-10618384ED19}" name="Color" dataDxfId="84">
+    <tableColumn id="18" xr3:uid="{7E05D636-A286-4EDD-A758-05FF6D600DAE}" name="tag" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{B2884F6B-F2BD-474E-A9AA-2DC958E5D3CB}" name="url" dataDxfId="8" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="20" xr3:uid="{BFB22592-A523-44A5-8D53-C7E4F0B7AF14}" name="Suscripcion" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{5F7BCF90-C885-4C8B-A630-10618384ED19}" name="Color" dataDxfId="6">
       <calculatedColumnFormula>+U1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{23121526-0B13-4FC9-A883-A5B094507DA9}" name="id_grafico" dataDxfId="83">
+    <tableColumn id="22" xr3:uid="{23121526-0B13-4FC9-A883-A5B094507DA9}" name="id_grafico" dataDxfId="5">
       <calculatedColumnFormula>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{3E90A0FE-4BB4-4FDA-84F0-F51EC115F399}" name="idterritorio" dataDxfId="82">
+    <tableColumn id="23" xr3:uid="{3E90A0FE-4BB4-4FDA-84F0-F51EC115F399}" name="idterritorio" dataDxfId="4">
       <calculatedColumnFormula>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{15312EFD-E843-423C-88B9-48A399058003}" name="id_tema" dataDxfId="81">
+    <tableColumn id="24" xr3:uid="{15312EFD-E843-423C-88B9-48A399058003}" name="id_tema" dataDxfId="3">
       <calculatedColumnFormula>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5C04802C-E8AA-42DB-8B6F-C804499405D3}" name="id_contenido" dataDxfId="80">
+    <tableColumn id="25" xr3:uid="{5C04802C-E8AA-42DB-8B6F-C804499405D3}" name="id_contenido" dataDxfId="2">
       <calculatedColumnFormula>+VLOOKUP(Agricultura3[[#This Row],[contenido]],Estructura!$G$4:$I$18,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{49928A08-4843-45EB-B2EA-0D052A918D12}" name="idfiltro" dataDxfId="79">
+    <tableColumn id="26" xr3:uid="{49928A08-4843-45EB-B2EA-0D052A918D12}" name="idfiltro" dataDxfId="1">
       <calculatedColumnFormula>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{19222DE1-C5A9-479E-83ED-0B373BC27DDC}" name="id_muestra" dataDxfId="78">
+    <tableColumn id="27" xr3:uid="{19222DE1-C5A9-479E-83ED-0B373BC27DDC}" name="id_muestra" dataDxfId="0">
       <calculatedColumnFormula>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9599,11 +9614,11 @@
   </sheetPr>
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9618,7 +9633,7 @@
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.5546875" customWidth="1"/>
     <col min="14" max="14" width="15.77734375" customWidth="1"/>
@@ -11265,9 +11280,9 @@
         <v>M-101</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>393</v>
+    <row r="19" spans="1:27" ht="48" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
+        <v>426</v>
       </c>
       <c r="B19" s="12">
         <f>+B2</f>
@@ -11341,7 +11356,7 @@
       </c>
       <c r="V19" s="25" t="str">
         <f>+Agricultura[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura[[#This Row],[id]]</f>
-        <v>100-0002</v>
+        <v>100-0018</v>
       </c>
       <c r="W19" s="25">
         <f>+VLOOKUP(Agricultura[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
@@ -11364,9 +11379,9 @@
         <v>M-102</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="36" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>394</v>
+    <row r="20" spans="1:27" ht="48" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>427</v>
       </c>
       <c r="B20" s="12">
         <f t="shared" ref="B20:B25" si="2">+B19</f>
@@ -11438,7 +11453,7 @@
       </c>
       <c r="V20" s="32" t="str">
         <f>+Agricultura[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura[[#This Row],[id]]</f>
-        <v>100-0003</v>
+        <v>100-0019</v>
       </c>
       <c r="W20" s="25">
         <f>+VLOOKUP(Agricultura[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
@@ -11461,9 +11476,9 @@
         <v>M-103</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="36" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>395</v>
+    <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>428</v>
       </c>
       <c r="B21" s="12">
         <f t="shared" si="2"/>
@@ -11535,7 +11550,7 @@
       </c>
       <c r="V21" s="32" t="str">
         <f>+Agricultura[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura[[#This Row],[id]]</f>
-        <v>100-0004</v>
+        <v>100-0020</v>
       </c>
       <c r="W21" s="25">
         <f>+VLOOKUP(Agricultura[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
@@ -11618,7 +11633,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Valparaíso por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q22" s="42" t="str">
-        <f>+Q21</f>
+        <f t="shared" ref="Q22:Q29" si="12">+Q21</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R22" s="41"/>
@@ -11627,7 +11642,7 @@
       </c>
       <c r="T22" s="43"/>
       <c r="U22" s="44" t="str">
-        <f>+U21</f>
+        <f t="shared" ref="U22:U29" si="13">+U21</f>
         <v>#1774B9</v>
       </c>
       <c r="V22" s="45" t="str">
@@ -11715,7 +11730,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de O'Higgins por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q23" s="42" t="str">
-        <f>+Q22</f>
+        <f t="shared" si="12"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R23" s="41"/>
@@ -11724,7 +11739,7 @@
       </c>
       <c r="T23" s="43"/>
       <c r="U23" s="44" t="str">
-        <f>+U22</f>
+        <f t="shared" si="13"/>
         <v>#1774B9</v>
       </c>
       <c r="V23" s="45" t="str">
@@ -11812,7 +11827,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Maule por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q24" s="42" t="str">
-        <f>+Q23</f>
+        <f t="shared" si="12"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R24" s="41"/>
@@ -11821,7 +11836,7 @@
       </c>
       <c r="T24" s="43"/>
       <c r="U24" s="44" t="str">
-        <f>+U23</f>
+        <f t="shared" si="13"/>
         <v>#1774B9</v>
       </c>
       <c r="V24" s="45" t="str">
@@ -11909,7 +11924,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región del Biobío por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q25" s="42" t="str">
-        <f>+Q24</f>
+        <f t="shared" si="12"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R25" s="41"/>
@@ -11918,7 +11933,7 @@
       </c>
       <c r="T25" s="43"/>
       <c r="U25" s="44" t="str">
-        <f>+U24</f>
+        <f t="shared" si="13"/>
         <v>#1774B9</v>
       </c>
       <c r="V25" s="45" t="str">
@@ -12000,7 +12015,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de La Araucanía por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q26" s="42" t="str">
-        <f>+Q25</f>
+        <f t="shared" si="12"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R26" s="41"/>
@@ -12009,7 +12024,7 @@
       </c>
       <c r="T26" s="43"/>
       <c r="U26" s="44" t="str">
-        <f>+U25</f>
+        <f t="shared" si="13"/>
         <v>#1774B9</v>
       </c>
       <c r="V26" s="45" t="str">
@@ -12091,7 +12106,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Los Lagos por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q27" s="16" t="str">
-        <f>+Q26</f>
+        <f t="shared" si="12"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R27" s="20"/>
@@ -12100,7 +12115,7 @@
       </c>
       <c r="T27" s="18"/>
       <c r="U27" s="31" t="str">
-        <f>+U26</f>
+        <f t="shared" si="13"/>
         <v>#1774B9</v>
       </c>
       <c r="V27" s="36" t="str">
@@ -12182,7 +12197,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Aysén por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q28" s="16" t="str">
-        <f>+Q27</f>
+        <f t="shared" si="12"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R28" s="20"/>
@@ -12191,7 +12206,7 @@
       </c>
       <c r="T28" s="18"/>
       <c r="U28" s="31" t="str">
-        <f>+U27</f>
+        <f t="shared" si="13"/>
         <v>#1774B9</v>
       </c>
       <c r="V28" s="36" t="str">
@@ -12253,15 +12268,15 @@
         <v>409</v>
       </c>
       <c r="L29" s="12" t="str">
-        <f t="shared" ref="L29:N29" si="12">+L28</f>
+        <f t="shared" ref="L29:N29" si="14">+L28</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M29" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N29" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O29" s="41" t="str">
@@ -12273,7 +12288,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Magallanes por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q29" s="42" t="str">
-        <f>+Q28</f>
+        <f t="shared" si="12"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R29" s="41"/>
@@ -12282,7 +12297,7 @@
       </c>
       <c r="T29" s="43"/>
       <c r="U29" s="44" t="str">
-        <f>+U28</f>
+        <f t="shared" si="13"/>
         <v>#1774B9</v>
       </c>
       <c r="V29" s="45" t="str">
@@ -12344,15 +12359,15 @@
         <v>412</v>
       </c>
       <c r="L30" s="12" t="str">
-        <f t="shared" ref="L30:N30" si="13">+L29</f>
+        <f t="shared" ref="L30:N30" si="15">+L29</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M30" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N30" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O30" s="41" t="str">
@@ -12364,7 +12379,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región Metropolitana por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q30" s="16" t="str">
-        <f t="shared" ref="Q30:Q31" si="14">+Q29</f>
+        <f t="shared" ref="Q30:Q31" si="16">+Q29</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R30" s="20"/>
@@ -12373,7 +12388,7 @@
       </c>
       <c r="T30" s="18"/>
       <c r="U30" s="31" t="str">
-        <f t="shared" ref="U30:U31" si="15">+U29</f>
+        <f t="shared" ref="U30:U31" si="17">+U29</f>
         <v>#1774B9</v>
       </c>
       <c r="V30" s="36" t="str">
@@ -12435,15 +12450,15 @@
         <v>403</v>
       </c>
       <c r="L31" s="12" t="str">
-        <f t="shared" ref="L31:N31" si="16">+L30</f>
+        <f t="shared" ref="L31:N31" si="18">+L30</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M31" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N31" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O31" s="41" t="str">
@@ -12455,7 +12470,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Los Ríos por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q31" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R31" s="41"/>
@@ -12464,7 +12479,7 @@
       </c>
       <c r="T31" s="43"/>
       <c r="U31" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#1774B9</v>
       </c>
       <c r="V31" s="45" t="str">
@@ -12526,15 +12541,15 @@
         <v>411</v>
       </c>
       <c r="L32" s="12" t="str">
-        <f t="shared" ref="L32:N32" si="17">+L31</f>
+        <f t="shared" ref="L32:N32" si="19">+L31</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M32" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N32" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O32" s="41" t="str">
@@ -12617,15 +12632,15 @@
         <v>409</v>
       </c>
       <c r="L33" s="12" t="str">
-        <f t="shared" ref="L33:N33" si="18">+L32</f>
+        <f t="shared" ref="L33:N33" si="20">+L32</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M33" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N33" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O33" s="20" t="str">
@@ -12637,7 +12652,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Ñuble por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q33" s="16" t="str">
-        <f t="shared" ref="Q33:Q36" si="19">+Q32</f>
+        <f t="shared" ref="Q33:Q36" si="21">+Q32</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R33" s="20"/>
@@ -12646,7 +12661,7 @@
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="31" t="str">
-        <f t="shared" ref="U33:U36" si="20">+U32</f>
+        <f t="shared" ref="U33:U36" si="22">+U32</f>
         <v>#1774B9</v>
       </c>
       <c r="V33" s="36" t="str">
@@ -12708,15 +12723,15 @@
         <v>412</v>
       </c>
       <c r="L34" s="12" t="str">
-        <f t="shared" ref="L34:N34" si="21">+L33</f>
+        <f t="shared" ref="L34:N34" si="23">+L33</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M34" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N34" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O34" s="20" t="str">
@@ -12728,7 +12743,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Aceituna, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q34" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R34" s="20"/>
@@ -12737,7 +12752,7 @@
       </c>
       <c r="T34" s="18"/>
       <c r="U34" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#1774B9</v>
       </c>
       <c r="V34" s="36" t="str">
@@ -12799,15 +12814,15 @@
         <v>403</v>
       </c>
       <c r="L35" s="12" t="str">
-        <f t="shared" ref="L35:N35" si="22">+L34</f>
+        <f t="shared" ref="L35:N35" si="24">+L34</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M35" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N35" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O35" s="20" t="str">
@@ -12819,7 +12834,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Almendra, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q35" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R35" s="20"/>
@@ -12828,7 +12843,7 @@
       </c>
       <c r="T35" s="18"/>
       <c r="U35" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#1774B9</v>
       </c>
       <c r="V35" s="36" t="str">
@@ -12890,15 +12905,15 @@
         <v>410</v>
       </c>
       <c r="L36" s="12" t="str">
-        <f t="shared" ref="L36:N36" si="23">+L35</f>
+        <f t="shared" ref="L36:N36" si="25">+L35</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M36" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N36" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O36" s="20" t="str">
@@ -12910,7 +12925,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Arándanos y mirtilos, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q36" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R36" s="41"/>
@@ -12919,7 +12934,7 @@
       </c>
       <c r="T36" s="43"/>
       <c r="U36" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#1774B9</v>
       </c>
       <c r="V36" s="45" t="str">
@@ -12982,11 +12997,11 @@
         <v>447</v>
       </c>
       <c r="M37" s="12" t="str">
-        <f t="shared" ref="M37:N37" si="24">+M36</f>
+        <f t="shared" ref="M37:N37" si="26">+M36</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N37" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O37" s="20" t="str">
@@ -12998,7 +13013,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Avellana, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q37" s="16" t="str">
-        <f t="shared" ref="Q37:Q55" si="25">+Q36</f>
+        <f t="shared" ref="Q37:Q55" si="27">+Q36</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R37" s="20"/>
@@ -13007,7 +13022,7 @@
       </c>
       <c r="T37" s="18"/>
       <c r="U37" s="31" t="str">
-        <f t="shared" ref="U37:U55" si="26">+U36</f>
+        <f t="shared" ref="U37:U55" si="28">+U36</f>
         <v>#1774B9</v>
       </c>
       <c r="V37" s="36" t="str">
@@ -13070,11 +13085,11 @@
         <v>447</v>
       </c>
       <c r="M38" s="12" t="str">
-        <f t="shared" ref="M38:N38" si="27">+M37</f>
+        <f t="shared" ref="M38:N38" si="29">+M37</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N38" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O38" s="20" t="str">
@@ -13086,7 +13101,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Castaña, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q38" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R38" s="20"/>
@@ -13095,7 +13110,7 @@
       </c>
       <c r="T38" s="18"/>
       <c r="U38" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V38" s="36" t="str">
@@ -13158,11 +13173,11 @@
         <v>447</v>
       </c>
       <c r="M39" s="12" t="str">
-        <f t="shared" ref="M39:N39" si="28">+M38</f>
+        <f t="shared" ref="M39:N39" si="30">+M38</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N39" s="12" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O39" s="20" t="str">
@@ -13174,7 +13189,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Cereza, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q39" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R39" s="20"/>
@@ -13183,7 +13198,7 @@
       </c>
       <c r="T39" s="18"/>
       <c r="U39" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V39" s="36" t="str">
@@ -13246,11 +13261,11 @@
         <v>447</v>
       </c>
       <c r="M40" s="12" t="str">
-        <f t="shared" ref="M40:N40" si="29">+M39</f>
+        <f t="shared" ref="M40:N40" si="31">+M39</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N40" s="12" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O40" s="20" t="str">
@@ -13262,7 +13277,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Ciruela, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q40" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R40" s="20"/>
@@ -13271,7 +13286,7 @@
       </c>
       <c r="T40" s="18"/>
       <c r="U40" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V40" s="36" t="str">
@@ -13334,11 +13349,11 @@
         <v>447</v>
       </c>
       <c r="M41" s="12" t="str">
-        <f t="shared" ref="M41:N41" si="30">+M40</f>
+        <f t="shared" ref="M41:N41" si="32">+M40</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N41" s="12" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O41" s="20" t="str">
@@ -13350,7 +13365,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Coco, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q41" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R41" s="20"/>
@@ -13359,7 +13374,7 @@
       </c>
       <c r="T41" s="18"/>
       <c r="U41" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V41" s="36" t="str">
@@ -13422,11 +13437,11 @@
         <v>447</v>
       </c>
       <c r="M42" s="12" t="str">
-        <f t="shared" ref="M42:N42" si="31">+M41</f>
+        <f t="shared" ref="M42:N42" si="33">+M41</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N42" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O42" s="20" t="str">
@@ -13438,7 +13453,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Damasco, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q42" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R42" s="20"/>
@@ -13447,7 +13462,7 @@
       </c>
       <c r="T42" s="18"/>
       <c r="U42" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V42" s="36" t="str">
@@ -13510,11 +13525,11 @@
         <v>447</v>
       </c>
       <c r="M43" s="12" t="str">
-        <f t="shared" ref="M43:N43" si="32">+M42</f>
+        <f t="shared" ref="M43:N43" si="34">+M42</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N43" s="12" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O43" s="20" t="str">
@@ -13526,7 +13541,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Durazno, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q43" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R43" s="20"/>
@@ -13535,7 +13550,7 @@
       </c>
       <c r="T43" s="18"/>
       <c r="U43" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V43" s="36" t="str">
@@ -13598,11 +13613,11 @@
         <v>447</v>
       </c>
       <c r="M44" s="12" t="str">
-        <f t="shared" ref="M44:N44" si="33">+M43</f>
+        <f t="shared" ref="M44:N44" si="35">+M43</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N44" s="12" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O44" s="20" t="str">
@@ -13614,7 +13629,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Frambuesa, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q44" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R44" s="20"/>
@@ -13623,7 +13638,7 @@
       </c>
       <c r="T44" s="18"/>
       <c r="U44" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V44" s="36" t="str">
@@ -13686,11 +13701,11 @@
         <v>447</v>
       </c>
       <c r="M45" s="12" t="str">
-        <f t="shared" ref="M45:N45" si="34">+M44</f>
+        <f t="shared" ref="M45:N45" si="36">+M44</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N45" s="12" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O45" s="20" t="str">
@@ -13702,7 +13717,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Frutilla, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q45" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R45" s="20"/>
@@ -13711,7 +13726,7 @@
       </c>
       <c r="T45" s="18"/>
       <c r="U45" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V45" s="36" t="str">
@@ -13774,11 +13789,11 @@
         <v>447</v>
       </c>
       <c r="M46" s="12" t="str">
-        <f t="shared" ref="M46:N46" si="35">+M45</f>
+        <f t="shared" ref="M46:N46" si="37">+M45</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N46" s="12" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O46" s="20" t="str">
@@ -13790,7 +13805,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Higo, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q46" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R46" s="20"/>
@@ -13799,7 +13814,7 @@
       </c>
       <c r="T46" s="18"/>
       <c r="U46" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V46" s="36" t="str">
@@ -13862,11 +13877,11 @@
         <v>447</v>
       </c>
       <c r="M47" s="12" t="str">
-        <f t="shared" ref="M47:N47" si="36">+M46</f>
+        <f t="shared" ref="M47:N47" si="38">+M46</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N47" s="12" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O47" s="20" t="str">
@@ -13878,7 +13893,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Kiwi, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q47" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R47" s="20"/>
@@ -13887,7 +13902,7 @@
       </c>
       <c r="T47" s="18"/>
       <c r="U47" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V47" s="36" t="str">
@@ -13950,11 +13965,11 @@
         <v>447</v>
       </c>
       <c r="M48" s="12" t="str">
-        <f t="shared" ref="M48:N48" si="37">+M47</f>
+        <f t="shared" ref="M48:N48" si="39">+M47</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N48" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O48" s="20" t="str">
@@ -13966,7 +13981,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Limón, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q48" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R48" s="20"/>
@@ -13975,7 +13990,7 @@
       </c>
       <c r="T48" s="18"/>
       <c r="U48" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V48" s="36" t="str">
@@ -14038,11 +14053,11 @@
         <v>447</v>
       </c>
       <c r="M49" s="12" t="str">
-        <f t="shared" ref="M49:N49" si="38">+M48</f>
+        <f t="shared" ref="M49:N49" si="40">+M48</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N49" s="12" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O49" s="20" t="str">
@@ -14054,7 +14069,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Mandarina, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q49" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R49" s="20"/>
@@ -14063,7 +14078,7 @@
       </c>
       <c r="T49" s="18"/>
       <c r="U49" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V49" s="36" t="str">
@@ -14126,11 +14141,11 @@
         <v>447</v>
       </c>
       <c r="M50" s="12" t="str">
-        <f t="shared" ref="M50:N50" si="39">+M49</f>
+        <f t="shared" ref="M50:N50" si="41">+M49</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N50" s="12" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O50" s="20" t="str">
@@ -14142,7 +14157,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Mangos y guayabas, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q50" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R50" s="20"/>
@@ -14151,7 +14166,7 @@
       </c>
       <c r="T50" s="18"/>
       <c r="U50" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V50" s="36" t="str">
@@ -14214,11 +14229,11 @@
         <v>447</v>
       </c>
       <c r="M51" s="12" t="str">
-        <f t="shared" ref="M51:N51" si="40">+M50</f>
+        <f t="shared" ref="M51:N51" si="42">+M50</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N51" s="12" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O51" s="20" t="str">
@@ -14230,7 +14245,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Manzana, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q51" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R51" s="20"/>
@@ -14239,7 +14254,7 @@
       </c>
       <c r="T51" s="18"/>
       <c r="U51" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V51" s="36" t="str">
@@ -14302,11 +14317,11 @@
         <v>447</v>
       </c>
       <c r="M52" s="12" t="str">
-        <f t="shared" ref="M52:N52" si="41">+M51</f>
+        <f t="shared" ref="M52:N52" si="43">+M51</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N52" s="12" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O52" s="20" t="str">
@@ -14318,7 +14333,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Membrillo, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q52" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R52" s="20"/>
@@ -14327,7 +14342,7 @@
       </c>
       <c r="T52" s="18"/>
       <c r="U52" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V52" s="36" t="str">
@@ -14390,11 +14405,11 @@
         <v>447</v>
       </c>
       <c r="M53" s="12" t="str">
-        <f t="shared" ref="M53:N53" si="42">+M52</f>
+        <f t="shared" ref="M53:N53" si="44">+M52</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N53" s="12" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O53" s="20" t="str">
@@ -14406,7 +14421,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Mora, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q53" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R53" s="20"/>
@@ -14415,7 +14430,7 @@
       </c>
       <c r="T53" s="18"/>
       <c r="U53" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V53" s="36" t="str">
@@ -14478,11 +14493,11 @@
         <v>447</v>
       </c>
       <c r="M54" s="12" t="str">
-        <f t="shared" ref="M54:N54" si="43">+M53</f>
+        <f t="shared" ref="M54:N54" si="45">+M53</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N54" s="12" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O54" s="20" t="str">
@@ -14494,7 +14509,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Naranja, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q54" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R54" s="20"/>
@@ -14503,7 +14518,7 @@
       </c>
       <c r="T54" s="18"/>
       <c r="U54" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V54" s="36" t="str">
@@ -14566,11 +14581,11 @@
         <v>447</v>
       </c>
       <c r="M55" s="12" t="str">
-        <f t="shared" ref="M55:N55" si="44">+M54</f>
+        <f t="shared" ref="M55:N55" si="46">+M54</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N55" s="12" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O55" s="41" t="str">
@@ -14582,7 +14597,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Nectarín, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q55" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R55" s="41"/>
@@ -14591,7 +14606,7 @@
       </c>
       <c r="T55" s="43"/>
       <c r="U55" s="44" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#1774B9</v>
       </c>
       <c r="V55" s="45" t="str">
@@ -14643,7 +14658,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Nuez, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q56" s="16" t="str">
-        <f t="shared" ref="Q56:Q65" si="45">+Q55</f>
+        <f t="shared" ref="Q56:Q65" si="47">+Q55</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R56" s="20"/>
@@ -14652,7 +14667,7 @@
       </c>
       <c r="T56" s="18"/>
       <c r="U56" s="31" t="str">
-        <f t="shared" ref="U56:U65" si="46">+U55</f>
+        <f t="shared" ref="U56:U65" si="48">+U55</f>
         <v>#1774B9</v>
       </c>
       <c r="V56" s="36" t="str">
@@ -14704,7 +14719,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Palta, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q57" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R57" s="20"/>
@@ -14713,7 +14728,7 @@
       </c>
       <c r="T57" s="18"/>
       <c r="U57" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V57" s="36" t="str">
@@ -14765,7 +14780,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Pera, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q58" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R58" s="20"/>
@@ -14774,7 +14789,7 @@
       </c>
       <c r="T58" s="18"/>
       <c r="U58" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V58" s="36" t="str">
@@ -14826,7 +14841,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Piña, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q59" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R59" s="20"/>
@@ -14835,7 +14850,7 @@
       </c>
       <c r="T59" s="18"/>
       <c r="U59" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V59" s="36" t="str">
@@ -14887,7 +14902,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Plumcots, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q60" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R60" s="20"/>
@@ -14896,7 +14911,7 @@
       </c>
       <c r="T60" s="18"/>
       <c r="U60" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V60" s="36" t="str">
@@ -14948,7 +14963,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Pomelo, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q61" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R61" s="20"/>
@@ -14957,7 +14972,7 @@
       </c>
       <c r="T61" s="18"/>
       <c r="U61" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V61" s="36" t="str">
@@ -15009,7 +15024,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Uva, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q62" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R62" s="20"/>
@@ -15018,7 +15033,7 @@
       </c>
       <c r="T62" s="18"/>
       <c r="U62" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V62" s="36" t="str">
@@ -15070,7 +15085,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Aceites, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q63" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R63" s="20"/>
@@ -15079,7 +15094,7 @@
       </c>
       <c r="T63" s="18"/>
       <c r="U63" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V63" s="36" t="str">
@@ -15131,7 +15146,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Congelados, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q64" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R64" s="20"/>
@@ -15140,7 +15155,7 @@
       </c>
       <c r="T64" s="18"/>
       <c r="U64" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V64" s="36" t="str">
@@ -15192,7 +15207,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Conservas, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q65" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R65" s="20"/>
@@ -15201,7 +15216,7 @@
       </c>
       <c r="T65" s="18"/>
       <c r="U65" s="31" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#1774B9</v>
       </c>
       <c r="V65" s="36" t="str">
@@ -15232,115 +15247,115 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="O2:P65">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="132" priority="1">
       <formula>$Y2="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="131" priority="2">
       <formula>$Y2="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="3">
+    <cfRule type="expression" dxfId="130" priority="3">
       <formula>$Y2="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="129" priority="4">
       <formula>$Y2="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>$Y2="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="6">
+    <cfRule type="expression" dxfId="127" priority="6">
       <formula>$Y2="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="7">
+    <cfRule type="expression" dxfId="126" priority="7">
       <formula>$Y2="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="8">
+    <cfRule type="expression" dxfId="125" priority="8">
       <formula>$Y2="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="9">
+    <cfRule type="expression" dxfId="124" priority="9">
       <formula>$Y2="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="10">
+    <cfRule type="expression" dxfId="123" priority="10">
       <formula>$Y2="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="11">
+    <cfRule type="expression" dxfId="122" priority="11">
       <formula>$Y2="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="12">
+    <cfRule type="expression" dxfId="121" priority="12">
       <formula>$Y2="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="13">
+    <cfRule type="expression" dxfId="120" priority="13">
       <formula>$Y2="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="119" priority="14">
       <formula>$Y2="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="15">
+    <cfRule type="expression" dxfId="118" priority="15">
       <formula>$Y2="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="16">
+    <cfRule type="expression" dxfId="117" priority="16">
       <formula>$Y2="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="17">
+    <cfRule type="expression" dxfId="116" priority="17">
       <formula>$Y2="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="18">
+    <cfRule type="expression" dxfId="115" priority="18">
       <formula>$Y2="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="19">
+    <cfRule type="expression" dxfId="114" priority="19">
       <formula>$Y2="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="113" priority="20">
       <formula>$Y2="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="112" priority="21">
       <formula>$Y2="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="22">
+    <cfRule type="expression" dxfId="111" priority="22">
       <formula>$Y2="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="23">
+    <cfRule type="expression" dxfId="110" priority="23">
       <formula>$Y2="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="109" priority="24">
       <formula>$Y2="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="25">
+    <cfRule type="expression" dxfId="108" priority="25">
       <formula>$Y2="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="26">
+    <cfRule type="expression" dxfId="107" priority="26">
       <formula>$Y2="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="27">
+    <cfRule type="expression" dxfId="106" priority="27">
       <formula>$Y2="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="28">
+    <cfRule type="expression" dxfId="105" priority="28">
       <formula>$Y2="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="29">
+    <cfRule type="expression" dxfId="104" priority="29">
       <formula>$Y2="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="30">
+    <cfRule type="expression" dxfId="103" priority="30">
       <formula>$Y2="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="31">
+    <cfRule type="expression" dxfId="102" priority="31">
       <formula>$Y2="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="32">
+    <cfRule type="expression" dxfId="101" priority="32">
       <formula>$Y2="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="33">
+    <cfRule type="expression" dxfId="100" priority="33">
       <formula>$Y2="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="34">
+    <cfRule type="expression" dxfId="99" priority="34">
       <formula>$Y2="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="98" priority="35">
       <formula>$Y2="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
+    <cfRule type="expression" dxfId="97" priority="36">
       <formula>$Y2="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="96" priority="37">
       <formula>$Y2="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24348,11 +24363,11 @@
   </sheetPr>
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A5"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24558,7 +24573,7 @@
         <v>M-101</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>393</v>
       </c>
@@ -24657,7 +24672,7 @@
         <v>M-102</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="60" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>394</v>
       </c>
@@ -24754,7 +24769,7 @@
         <v>M-103</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>395</v>
       </c>
@@ -24851,7 +24866,7 @@
         <v>M-104</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>413</v>
       </c>
@@ -24911,7 +24926,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Valparaíso por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q6" s="42" t="str">
-        <f>+Q5</f>
+        <f t="shared" ref="Q6:Q13" si="6">+Q5</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R6" s="41"/>
@@ -24920,7 +24935,7 @@
       </c>
       <c r="T6" s="43"/>
       <c r="U6" s="44" t="str">
-        <f>+U5</f>
+        <f t="shared" ref="U6:U13" si="7">+U5</f>
         <v>#1774B9</v>
       </c>
       <c r="V6" s="45" t="str">
@@ -24948,7 +24963,7 @@
         <v>M-105</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>414</v>
       </c>
@@ -24964,8 +24979,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E7" s="24">
-        <v>0</v>
+      <c r="E7" s="57">
+        <v>100101</v>
       </c>
       <c r="F7" s="12" t="str">
         <f t="shared" si="2"/>
@@ -24984,8 +24999,8 @@
       <c r="J7" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>403</v>
+      <c r="K7" s="55" t="s">
+        <v>512</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25001,14 +25016,14 @@
       </c>
       <c r="O7" s="41" t="str">
         <f>"Exportaciones de fruta, por Tipo de Fruta y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I7&amp;", durante el "&amp;L7</f>
-        <v>Exportaciones de fruta, por Tipo de Fruta y Fruta, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por Tipo de Fruta y Berries, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P7" s="41" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de O'Higgins por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q7" s="42" t="str">
-        <f>+Q6</f>
+        <f t="shared" si="6"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R7" s="41"/>
@@ -25017,16 +25032,16 @@
       </c>
       <c r="T7" s="43"/>
       <c r="U7" s="44" t="str">
-        <f>+U6</f>
+        <f t="shared" si="7"/>
         <v>#1774B9</v>
       </c>
       <c r="V7" s="45" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>100-0006</v>
       </c>
-      <c r="W7" s="46">
+      <c r="W7" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X7" s="47" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25040,12 +25055,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-103</v>
       </c>
-      <c r="AA7" s="47" t="str">
+      <c r="AA7" s="47" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>415</v>
       </c>
@@ -25061,8 +25076,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E8" s="24">
-        <v>0</v>
+      <c r="E8" s="57">
+        <v>100102</v>
       </c>
       <c r="F8" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25081,8 +25096,8 @@
       <c r="J8" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>410</v>
+      <c r="K8" s="55" t="s">
+        <v>513</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25098,14 +25113,14 @@
       </c>
       <c r="O8" s="41" t="str">
         <f>"Exportaciones de fruta, por Tipo de Fruta y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I8&amp;", durante el "&amp;L8</f>
-        <v>Exportaciones de fruta, por Tipo de Fruta y País de Destino, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por Tipo de Fruta y Cítricos, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P8" s="41" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Maule por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q8" s="42" t="str">
-        <f>+Q7</f>
+        <f t="shared" si="6"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R8" s="41"/>
@@ -25114,16 +25129,16 @@
       </c>
       <c r="T8" s="43"/>
       <c r="U8" s="44" t="str">
-        <f>+U7</f>
+        <f t="shared" si="7"/>
         <v>#1774B9</v>
       </c>
       <c r="V8" s="45" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>100-0007</v>
       </c>
-      <c r="W8" s="46">
+      <c r="W8" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X8" s="47" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25137,12 +25152,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-103</v>
       </c>
-      <c r="AA8" s="47" t="str">
+      <c r="AA8" s="47" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>416</v>
       </c>
@@ -25158,8 +25173,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E9" s="24">
-        <v>0</v>
+      <c r="E9" s="57">
+        <v>100103</v>
       </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25178,8 +25193,8 @@
       <c r="J9" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>411</v>
+      <c r="K9" s="55" t="s">
+        <v>514</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25195,14 +25210,14 @@
       </c>
       <c r="O9" s="41" t="str">
         <f>"Exportaciones de fruta, por Tipo de Fruta y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I9&amp;", durante el "&amp;L9</f>
-        <v>Exportaciones de fruta, por Tipo de Fruta y Procesamiento, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por Tipo de Fruta y Frutos de hueso (carozo), producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P9" s="41" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región del Biobío por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q9" s="42" t="str">
-        <f>+Q8</f>
+        <f t="shared" si="6"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R9" s="41"/>
@@ -25211,16 +25226,16 @@
       </c>
       <c r="T9" s="43"/>
       <c r="U9" s="44" t="str">
-        <f>+U8</f>
+        <f t="shared" si="7"/>
         <v>#1774B9</v>
       </c>
       <c r="V9" s="45" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>100-0008</v>
       </c>
-      <c r="W9" s="46">
+      <c r="W9" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X9" s="47" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25234,12 +25249,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-103</v>
       </c>
-      <c r="AA9" s="47" t="str">
+      <c r="AA9" s="47" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>417</v>
       </c>
@@ -25249,8 +25264,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E10" s="24">
-        <v>0</v>
+      <c r="E10" s="57">
+        <v>100104</v>
       </c>
       <c r="F10" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25269,8 +25284,8 @@
       <c r="J10" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="K10" s="38" t="s">
-        <v>409</v>
+      <c r="K10" s="56" t="s">
+        <v>515</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25286,14 +25301,14 @@
       </c>
       <c r="O10" s="41" t="str">
         <f>"Exportaciones de fruta, por Fruta y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I10&amp;", durante el "&amp;L10</f>
-        <v>Exportaciones de fruta, por Fruta y Región de Origen, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por Fruta y Frutos de pepita, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P10" s="41" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de La Araucanía por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q10" s="42" t="str">
-        <f>+Q9</f>
+        <f t="shared" si="6"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R10" s="41"/>
@@ -25302,16 +25317,16 @@
       </c>
       <c r="T10" s="43"/>
       <c r="U10" s="44" t="str">
-        <f>+U9</f>
+        <f t="shared" si="7"/>
         <v>#1774B9</v>
       </c>
       <c r="V10" s="45" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>-0009</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X10" s="47" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25325,12 +25340,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-104</v>
       </c>
-      <c r="AA10" s="47" t="str">
+      <c r="AA10" s="47" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>418</v>
       </c>
@@ -25340,8 +25355,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E11" s="24">
-        <v>0</v>
+      <c r="E11" s="57">
+        <v>100105</v>
       </c>
       <c r="F11" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25360,8 +25375,8 @@
       <c r="J11" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>410</v>
+      <c r="K11" s="55" t="s">
+        <v>516</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25377,14 +25392,14 @@
       </c>
       <c r="O11" s="41" t="str">
         <f>"Exportaciones de fruta, por Fruta y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I11&amp;", durante el "&amp;L11</f>
-        <v>Exportaciones de fruta, por Fruta y País de Destino, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por Fruta y Frutos secos, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P11" s="20" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Los Lagos por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q11" s="16" t="str">
-        <f>+Q10</f>
+        <f t="shared" si="6"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R11" s="20"/>
@@ -25393,16 +25408,16 @@
       </c>
       <c r="T11" s="18"/>
       <c r="U11" s="31" t="str">
-        <f>+U10</f>
+        <f t="shared" si="7"/>
         <v>#1774B9</v>
       </c>
       <c r="V11" s="36" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>-0010</v>
       </c>
-      <c r="W11" s="46">
+      <c r="W11" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X11" s="32" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25416,12 +25431,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-104</v>
       </c>
-      <c r="AA11" s="32" t="str">
+      <c r="AA11" s="32" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>419</v>
       </c>
@@ -25431,8 +25446,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E12" s="24">
-        <v>0</v>
+      <c r="E12" s="57">
+        <v>100106</v>
       </c>
       <c r="F12" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25451,8 +25466,8 @@
       <c r="J12" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>411</v>
+      <c r="K12" s="55" t="s">
+        <v>517</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25468,14 +25483,14 @@
       </c>
       <c r="O12" s="41" t="str">
         <f>"Exportaciones de fruta, por Fruta y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I12&amp;", durante el "&amp;L12</f>
-        <v>Exportaciones de fruta, por Fruta y Procesamiento, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por Fruta y Frutos oleaginosos, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P12" s="20" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Aysén por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q12" s="16" t="str">
-        <f>+Q11</f>
+        <f t="shared" si="6"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R12" s="20"/>
@@ -25484,16 +25499,16 @@
       </c>
       <c r="T12" s="18"/>
       <c r="U12" s="31" t="str">
-        <f>+U11</f>
+        <f t="shared" si="7"/>
         <v>#1774B9</v>
       </c>
       <c r="V12" s="36" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>-0011</v>
       </c>
-      <c r="W12" s="46">
+      <c r="W12" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" s="32" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25507,12 +25522,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-104</v>
       </c>
-      <c r="AA12" s="32" t="str">
+      <c r="AA12" s="32" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>420</v>
       </c>
@@ -25522,8 +25537,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E13" s="24">
-        <v>0</v>
+      <c r="E13" s="57">
+        <v>100107</v>
       </c>
       <c r="F13" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25542,8 +25557,8 @@
       <c r="J13" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="K13" s="38" t="s">
-        <v>409</v>
+      <c r="K13" s="56" t="s">
+        <v>518</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25559,14 +25574,14 @@
       </c>
       <c r="O13" s="41" t="str">
         <f>"Exportaciones de fruta, por País de Destino y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I13&amp;", durante el "&amp;L13</f>
-        <v>Exportaciones de fruta, por País de Destino y Región de Origen, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por País de Destino y Otros, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P13" s="41" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Magallanes por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q13" s="42" t="str">
-        <f>+Q12</f>
+        <f t="shared" si="6"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R13" s="41"/>
@@ -25575,16 +25590,16 @@
       </c>
       <c r="T13" s="43"/>
       <c r="U13" s="44" t="str">
-        <f>+U12</f>
+        <f t="shared" si="7"/>
         <v>#1774B9</v>
       </c>
       <c r="V13" s="45" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>-0012</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" s="47" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25598,12 +25613,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-105</v>
       </c>
-      <c r="AA13" s="47" t="str">
+      <c r="AA13" s="47" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>421</v>
       </c>
@@ -25613,8 +25628,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E14" s="24">
-        <v>0</v>
+      <c r="E14" s="57">
+        <v>100108</v>
       </c>
       <c r="F14" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25633,8 +25648,8 @@
       <c r="J14" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>412</v>
+      <c r="K14" s="55" t="s">
+        <v>519</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25650,14 +25665,14 @@
       </c>
       <c r="O14" s="41" t="str">
         <f>"Exportaciones de fruta, por País de Destino y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I14&amp;", durante el "&amp;L14</f>
-        <v>Exportaciones de fruta, por País de Destino y Tipo de Fruta, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por País de Destino y Tropicales y subtropicales, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P14" s="20" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región Metropolitana por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q14" s="16" t="str">
-        <f t="shared" ref="Q14:Q15" si="6">+Q13</f>
+        <f t="shared" ref="Q14:Q15" si="8">+Q13</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R14" s="20"/>
@@ -25666,16 +25681,16 @@
       </c>
       <c r="T14" s="18"/>
       <c r="U14" s="31" t="str">
-        <f t="shared" ref="U14:U15" si="7">+U13</f>
+        <f t="shared" ref="U14:U15" si="9">+U13</f>
         <v>#1774B9</v>
       </c>
       <c r="V14" s="36" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>-0013</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="37" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X14" s="32" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25689,12 +25704,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-105</v>
       </c>
-      <c r="AA14" s="32" t="str">
+      <c r="AA14" s="32" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>422</v>
       </c>
@@ -25704,8 +25719,8 @@
         <f t="shared" si="1"/>
         <v>Agropecuario y Forestal</v>
       </c>
-      <c r="E15" s="24">
-        <v>0</v>
+      <c r="E15" s="57">
+        <v>100109</v>
       </c>
       <c r="F15" s="12" t="str">
         <f t="shared" si="2"/>
@@ -25724,8 +25739,8 @@
       <c r="J15" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="K15" s="38" t="s">
-        <v>403</v>
+      <c r="K15" s="56" t="s">
+        <v>520</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="3"/>
@@ -25741,14 +25756,14 @@
       </c>
       <c r="O15" s="41" t="str">
         <f>"Exportaciones de fruta, por País de Destino y "&amp;Agricultura3[[#This Row],[Muestra]]&amp;", producidas en "&amp;I15&amp;", durante el "&amp;L15</f>
-        <v>Exportaciones de fruta, por País de Destino y Fruta, producidas en Chile, durante el Periodo 2012-2020</v>
+        <v>Exportaciones de fruta, por País de Destino y Uva, producidas en Chile, durante el Periodo 2012-2020</v>
       </c>
       <c r="P15" s="41" t="str">
         <f>"El gráfico muestra la cantidad de fruta exportada desde la "&amp;[1]!Sitio_Publico[[#This Row],[territorio]]&amp;" por "&amp;[1]!Sitio_Publico[[#This Row],[Muestra]]&amp;", durante el "&amp;[1]!Sitio_Publico[[#This Row],[temporalidad]]&amp;" de acuerdo a datos recopilados por la "&amp;[1]!Sitio_Publico[[#This Row],[fuente]]&amp;"- "&amp;[1]!Sitio_Publico[[#This Row],[unidad_medida]]</f>
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Los Ríos por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q15" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R15" s="41"/>
@@ -25757,16 +25772,16 @@
       </c>
       <c r="T15" s="43"/>
       <c r="U15" s="44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#1774B9</v>
       </c>
       <c r="V15" s="45" t="str">
         <f>+Agricultura3[[#This Row],[idcoleccion]]&amp;"-"&amp;Agricultura3[[#This Row],[id]]</f>
         <v>-0014</v>
       </c>
-      <c r="W15" s="46">
+      <c r="W15" s="46" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro URL]],Estructura!$S$4:$T$366,2,0)</f>
-        <v>10100000</v>
+        <v>#N/A</v>
       </c>
       <c r="X15" s="47" t="str">
         <f>+VLOOKUP(Agricultura3[[#This Row],[tema]],Estructura!$B$4:$D$18,3,0)</f>
@@ -25780,12 +25795,12 @@
         <f>+VLOOKUP(Agricultura3[[#This Row],[Filtro Integrado]],Estructura!$B$21:$D$35,3,0)</f>
         <v>FI-105</v>
       </c>
-      <c r="AA15" s="47" t="str">
+      <c r="AA15" s="47" t="e">
         <f>+VLOOKUP(Agricultura3[[#This Row],[Muestra]],Estructura!$G$21:$I$35,3,0)</f>
-        <v>M-102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>423</v>
       </c>
@@ -25876,7 +25891,7 @@
         <v>M-104</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>424</v>
       </c>
@@ -25930,7 +25945,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Ñuble por Tipo de Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q17" s="16" t="str">
-        <f t="shared" ref="Q17:Q49" si="8">+Q16</f>
+        <f t="shared" ref="Q17:Q49" si="10">+Q16</f>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R17" s="20"/>
@@ -25939,7 +25954,7 @@
       </c>
       <c r="T17" s="18"/>
       <c r="U17" s="31" t="str">
-        <f t="shared" ref="U17:U49" si="9">+U16</f>
+        <f t="shared" ref="U17:U49" si="11">+U16</f>
         <v>#1774B9</v>
       </c>
       <c r="V17" s="36" t="str">
@@ -25967,7 +25982,7 @@
         <v>M-105</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>425</v>
       </c>
@@ -26021,7 +26036,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Tarapacá por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q18" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R18" s="20"/>
@@ -26030,7 +26045,7 @@
       </c>
       <c r="T18" s="18"/>
       <c r="U18" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V18" s="36" t="str">
@@ -26058,7 +26073,7 @@
         <v>M-101</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>426</v>
       </c>
@@ -26112,7 +26127,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Antofagasta por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R19" s="20"/>
@@ -26121,7 +26136,7 @@
       </c>
       <c r="T19" s="18"/>
       <c r="U19" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V19" s="36" t="str">
@@ -26149,25 +26164,25 @@
         <v>M-102</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>427</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
       <c r="D20" s="13" t="str">
-        <f t="shared" ref="D20:D39" si="10">+D19</f>
+        <f t="shared" ref="D20:D39" si="12">+D19</f>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E20" s="24">
         <v>0</v>
       </c>
       <c r="F20" s="12" t="str">
-        <f t="shared" ref="F20:G35" si="11">+F19</f>
+        <f t="shared" ref="F20:G35" si="13">+F19</f>
         <v>Fruta</v>
       </c>
       <c r="G20" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -26183,15 +26198,15 @@
         <v>410</v>
       </c>
       <c r="L20" s="12" t="str">
-        <f t="shared" ref="L20:N35" si="12">+L19</f>
+        <f t="shared" ref="L20:N35" si="14">+L19</f>
         <v>Periodo 2012-2020</v>
       </c>
       <c r="M20" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N20" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O20" s="20" t="str">
@@ -26203,7 +26218,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Atacama por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q20" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R20" s="41"/>
@@ -26212,7 +26227,7 @@
       </c>
       <c r="T20" s="43"/>
       <c r="U20" s="44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V20" s="45" t="str">
@@ -26240,23 +26255,23 @@
         <v>M-103</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>428</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G21" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H21" s="15" t="s">
@@ -26275,11 +26290,11 @@
         <v>447</v>
       </c>
       <c r="M21" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N21" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O21" s="20" t="str">
@@ -26291,7 +26306,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Coquimbo por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q21" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R21" s="20"/>
@@ -26300,7 +26315,7 @@
       </c>
       <c r="T21" s="18"/>
       <c r="U21" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V21" s="36" t="str">
@@ -26328,23 +26343,23 @@
         <v>M-101</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>429</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G22" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H22" s="15" t="s">
@@ -26363,11 +26378,11 @@
         <v>447</v>
       </c>
       <c r="M22" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N22" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O22" s="20" t="str">
@@ -26379,7 +26394,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Valparaíso por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q22" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R22" s="20"/>
@@ -26388,7 +26403,7 @@
       </c>
       <c r="T22" s="18"/>
       <c r="U22" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V22" s="36" t="str">
@@ -26416,23 +26431,23 @@
         <v>M-102</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>430</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G23" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H23" s="15" t="s">
@@ -26451,11 +26466,11 @@
         <v>447</v>
       </c>
       <c r="M23" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N23" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O23" s="20" t="str">
@@ -26467,7 +26482,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de O'Higgins por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q23" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R23" s="20"/>
@@ -26476,7 +26491,7 @@
       </c>
       <c r="T23" s="18"/>
       <c r="U23" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V23" s="36" t="str">
@@ -26504,23 +26519,23 @@
         <v>M-103</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>431</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G24" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -26539,11 +26554,11 @@
         <v>447</v>
       </c>
       <c r="M24" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N24" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O24" s="20" t="str">
@@ -26555,7 +26570,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Maule por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q24" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R24" s="20"/>
@@ -26564,7 +26579,7 @@
       </c>
       <c r="T24" s="18"/>
       <c r="U24" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V24" s="36" t="str">
@@ -26592,23 +26607,23 @@
         <v>M-104</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>432</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G25" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H25" s="15" t="s">
@@ -26627,11 +26642,11 @@
         <v>447</v>
       </c>
       <c r="M25" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N25" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O25" s="20" t="str">
@@ -26643,7 +26658,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región del Biobío por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q25" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R25" s="20"/>
@@ -26652,7 +26667,7 @@
       </c>
       <c r="T25" s="18"/>
       <c r="U25" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V25" s="36" t="str">
@@ -26680,23 +26695,23 @@
         <v>M-105</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>433</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G26" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H26" s="15" t="s">
@@ -26715,11 +26730,11 @@
         <v>447</v>
       </c>
       <c r="M26" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N26" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O26" s="20" t="str">
@@ -26731,7 +26746,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de La Araucanía por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q26" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R26" s="20"/>
@@ -26740,7 +26755,7 @@
       </c>
       <c r="T26" s="18"/>
       <c r="U26" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V26" s="36" t="str">
@@ -26768,23 +26783,23 @@
         <v>M-102</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>434</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G27" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -26803,11 +26818,11 @@
         <v>447</v>
       </c>
       <c r="M27" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N27" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O27" s="20" t="str">
@@ -26819,7 +26834,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Los Lagos por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q27" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R27" s="20"/>
@@ -26828,7 +26843,7 @@
       </c>
       <c r="T27" s="18"/>
       <c r="U27" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V27" s="36" t="str">
@@ -26856,23 +26871,23 @@
         <v>M-103</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>435</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G28" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H28" s="15" t="s">
@@ -26891,11 +26906,11 @@
         <v>447</v>
       </c>
       <c r="M28" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N28" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O28" s="20" t="str">
@@ -26907,7 +26922,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Aysén por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q28" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R28" s="20"/>
@@ -26916,7 +26931,7 @@
       </c>
       <c r="T28" s="18"/>
       <c r="U28" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V28" s="36" t="str">
@@ -26944,23 +26959,23 @@
         <v>M-104</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>436</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G29" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H29" s="15" t="s">
@@ -26979,11 +26994,11 @@
         <v>447</v>
       </c>
       <c r="M29" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N29" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O29" s="20" t="str">
@@ -26995,7 +27010,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Magallanes por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q29" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R29" s="20"/>
@@ -27004,7 +27019,7 @@
       </c>
       <c r="T29" s="18"/>
       <c r="U29" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V29" s="36" t="str">
@@ -27032,23 +27047,23 @@
         <v>M-105</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>437</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G30" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H30" s="15" t="s">
@@ -27067,11 +27082,11 @@
         <v>447</v>
       </c>
       <c r="M30" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N30" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O30" s="20" t="str">
@@ -27083,7 +27098,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región Metropolitana por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q30" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R30" s="20"/>
@@ -27092,7 +27107,7 @@
       </c>
       <c r="T30" s="18"/>
       <c r="U30" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V30" s="36" t="str">
@@ -27120,23 +27135,23 @@
         <v>M-103</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>438</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G31" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -27155,11 +27170,11 @@
         <v>447</v>
       </c>
       <c r="M31" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N31" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O31" s="20" t="str">
@@ -27171,7 +27186,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Los Ríos por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q31" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R31" s="20"/>
@@ -27180,7 +27195,7 @@
       </c>
       <c r="T31" s="18"/>
       <c r="U31" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V31" s="36" t="str">
@@ -27208,23 +27223,23 @@
         <v>M-104</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>439</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G32" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H32" s="15" t="s">
@@ -27243,11 +27258,11 @@
         <v>447</v>
       </c>
       <c r="M32" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N32" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O32" s="20" t="str">
@@ -27259,7 +27274,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Arica y Parinacota por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q32" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R32" s="20"/>
@@ -27268,7 +27283,7 @@
       </c>
       <c r="T32" s="18"/>
       <c r="U32" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V32" s="36" t="str">
@@ -27296,23 +27311,23 @@
         <v>M-105</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>440</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G33" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H33" s="15" t="s">
@@ -27331,11 +27346,11 @@
         <v>447</v>
       </c>
       <c r="M33" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N33" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O33" s="20" t="str">
@@ -27347,7 +27362,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Región de Ñuble por Fruta, durante el Periodo 2012-2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q33" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R33" s="20"/>
@@ -27356,7 +27371,7 @@
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V33" s="36" t="str">
@@ -27384,23 +27399,23 @@
         <v>M-101</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>441</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G34" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H34" s="15" t="s">
@@ -27419,11 +27434,11 @@
         <v>447</v>
       </c>
       <c r="M34" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N34" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O34" s="20" t="str">
@@ -27435,7 +27450,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Aceituna, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q34" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R34" s="20"/>
@@ -27444,7 +27459,7 @@
       </c>
       <c r="T34" s="18"/>
       <c r="U34" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V34" s="36" t="str">
@@ -27472,23 +27487,23 @@
         <v>M-102</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>442</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Fruta</v>
       </c>
       <c r="G35" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Exportaciones</v>
       </c>
       <c r="H35" s="15" t="s">
@@ -27507,11 +27522,11 @@
         <v>447</v>
       </c>
       <c r="M35" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N35" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O35" s="20" t="str">
@@ -27523,7 +27538,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Almendra, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q35" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R35" s="20"/>
@@ -27532,7 +27547,7 @@
       </c>
       <c r="T35" s="18"/>
       <c r="U35" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V35" s="36" t="str">
@@ -27560,23 +27575,23 @@
         <v>M-104</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="51" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>443</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="12" t="str">
-        <f t="shared" ref="F36:G39" si="13">+F35</f>
+        <f t="shared" ref="F36:G39" si="15">+F35</f>
         <v>Fruta</v>
       </c>
       <c r="G36" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Exportaciones</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -27595,11 +27610,11 @@
         <v>447</v>
       </c>
       <c r="M36" s="12" t="str">
-        <f t="shared" ref="M36:N39" si="14">+M35</f>
+        <f t="shared" ref="M36:N39" si="16">+M35</f>
         <v>toneladas (t)</v>
       </c>
       <c r="N36" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O36" s="20" t="str">
@@ -27611,7 +27626,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Arándanos y mirtilos, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q36" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R36" s="20"/>
@@ -27620,7 +27635,7 @@
       </c>
       <c r="T36" s="18"/>
       <c r="U36" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V36" s="36" t="str">
@@ -27648,23 +27663,23 @@
         <v>M-105</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>444</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Fruta</v>
       </c>
       <c r="G37" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Exportaciones</v>
       </c>
       <c r="H37" s="15" t="s">
@@ -27683,11 +27698,11 @@
         <v>447</v>
       </c>
       <c r="M37" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N37" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O37" s="20" t="str">
@@ -27699,7 +27714,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Avellana, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q37" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R37" s="20"/>
@@ -27708,7 +27723,7 @@
       </c>
       <c r="T37" s="18"/>
       <c r="U37" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V37" s="36" t="str">
@@ -27736,23 +27751,23 @@
         <v>M-101</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Fruta</v>
       </c>
       <c r="G38" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Exportaciones</v>
       </c>
       <c r="H38" s="15" t="s">
@@ -27771,11 +27786,11 @@
         <v>447</v>
       </c>
       <c r="M38" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N38" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O38" s="20" t="str">
@@ -27787,7 +27802,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Castaña, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q38" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R38" s="20"/>
@@ -27796,7 +27811,7 @@
       </c>
       <c r="T38" s="18"/>
       <c r="U38" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V38" s="36" t="str">
@@ -27824,23 +27839,23 @@
         <v>M-102</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>446</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
       <c r="D39" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Agropecuario y Forestal</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Fruta</v>
       </c>
       <c r="G39" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Exportaciones</v>
       </c>
       <c r="H39" s="15" t="s">
@@ -27859,11 +27874,11 @@
         <v>447</v>
       </c>
       <c r="M39" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>toneladas (t)</v>
       </c>
       <c r="N39" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Oficina de Estudios y Políticas Agrarias (ODEPA)</v>
       </c>
       <c r="O39" s="41" t="str">
@@ -27875,7 +27890,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Cereza, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q39" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R39" s="41"/>
@@ -27884,7 +27899,7 @@
       </c>
       <c r="T39" s="43"/>
       <c r="U39" s="44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V39" s="45" t="str">
@@ -27936,7 +27951,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Ciruela, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q40" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R40" s="20"/>
@@ -27945,7 +27960,7 @@
       </c>
       <c r="T40" s="18"/>
       <c r="U40" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V40" s="36" t="str">
@@ -27997,7 +28012,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Coco, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q41" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R41" s="20"/>
@@ -28006,7 +28021,7 @@
       </c>
       <c r="T41" s="18"/>
       <c r="U41" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V41" s="36" t="str">
@@ -28058,7 +28073,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Damasco, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q42" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R42" s="20"/>
@@ -28067,7 +28082,7 @@
       </c>
       <c r="T42" s="18"/>
       <c r="U42" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V42" s="36" t="str">
@@ -28119,7 +28134,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Durazno, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q43" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R43" s="20"/>
@@ -28128,7 +28143,7 @@
       </c>
       <c r="T43" s="18"/>
       <c r="U43" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V43" s="36" t="str">
@@ -28180,7 +28195,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Frambuesa, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q44" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R44" s="20"/>
@@ -28189,7 +28204,7 @@
       </c>
       <c r="T44" s="18"/>
       <c r="U44" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V44" s="36" t="str">
@@ -28241,7 +28256,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Frutilla, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q45" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R45" s="20"/>
@@ -28250,7 +28265,7 @@
       </c>
       <c r="T45" s="18"/>
       <c r="U45" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V45" s="36" t="str">
@@ -28302,7 +28317,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Higo, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q46" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R46" s="20"/>
@@ -28311,7 +28326,7 @@
       </c>
       <c r="T46" s="18"/>
       <c r="U46" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V46" s="36" t="str">
@@ -28363,7 +28378,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Kiwi, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q47" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R47" s="20"/>
@@ -28372,7 +28387,7 @@
       </c>
       <c r="T47" s="18"/>
       <c r="U47" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V47" s="36" t="str">
@@ -28400,7 +28415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
@@ -28424,7 +28439,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Limón, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q48" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R48" s="20"/>
@@ -28433,7 +28448,7 @@
       </c>
       <c r="T48" s="18"/>
       <c r="U48" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V48" s="36" t="str">
@@ -28461,7 +28476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
@@ -28485,7 +28500,7 @@
         <v>El gráfico muestra la cantidad de fruta exportada desde la Chile por Mandarina, durante el Año 2020 de acuerdo a datos recopilados por la Oficina de Estudios y Políticas Agrarias (ODEPA)- toneladas (t)</v>
       </c>
       <c r="Q49" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Gráfico Evolución</v>
       </c>
       <c r="R49" s="20"/>
@@ -28494,7 +28509,7 @@
       </c>
       <c r="T49" s="18"/>
       <c r="U49" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#1774B9</v>
       </c>
       <c r="V49" s="36" t="str">
@@ -28524,115 +28539,115 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:P49">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>$Y2="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>$Y2="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>$Y2="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>$Y2="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>$Y2="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>$Y2="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="58" priority="7">
       <formula>$Y2="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="8">
+    <cfRule type="expression" dxfId="57" priority="8">
       <formula>$Y2="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>$Y2="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="55" priority="10">
       <formula>$Y2="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="11">
+    <cfRule type="expression" dxfId="54" priority="11">
       <formula>$Y2="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="12">
+    <cfRule type="expression" dxfId="53" priority="12">
       <formula>$Y2="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="13">
+    <cfRule type="expression" dxfId="52" priority="13">
       <formula>$Y2="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule type="expression" dxfId="51" priority="14">
       <formula>$Y2="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="50" priority="15">
       <formula>$Y2="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>$Y2="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="48" priority="17">
       <formula>$Y2="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="47" priority="18">
       <formula>$Y2="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="46" priority="19">
       <formula>$Y2="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="45" priority="20">
       <formula>$Y2="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>$Y2="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>$Y2="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23">
+    <cfRule type="expression" dxfId="42" priority="23">
       <formula>$Y2="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="41" priority="24">
       <formula>$Y2="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="25">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>$Y2="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="26">
+    <cfRule type="expression" dxfId="39" priority="26">
       <formula>$Y2="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="27">
+    <cfRule type="expression" dxfId="38" priority="27">
       <formula>$Y2="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="28">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>$Y2="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="29">
+    <cfRule type="expression" dxfId="36" priority="29">
       <formula>$Y2="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="30">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>$Y2="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="31">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>$Y2="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="32">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>$Y2="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$Y2="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>$Y2="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>$Y2="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>$Y2="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>$Y2="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
